--- a/Develop/juwhan/server/ChatBot/chatbot_data_find.xlsx
+++ b/Develop/juwhan/server/ChatBot/chatbot_data_find.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogus\OneDrive\바탕 화면\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB22571-798A-41B1-AE6E-35CB6B342C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D219BDB5-1548-4A74-ADAF-1C59727C48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="850" yWindow="1520" windowWidth="12210" windowHeight="11170" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="11540" windowHeight="11170" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,15 +223,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>휴대폰을 맡기러 오셨군요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>it's a galaxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>galaxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to find your cellphone?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to find cellphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11 15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/|:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,8 +290,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -748,13 +763,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -765,13 +780,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -782,27 +797,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
@@ -816,10 +831,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -833,10 +848,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>43</v>
@@ -850,10 +865,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
@@ -867,27 +882,27 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -901,10 +916,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -918,10 +933,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -935,12 +950,40 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
     </row>
